--- a/data/trans_dic/P37_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad</t>
+          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad (tasa de respuesta: 99,02%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>39,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>38,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,23%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>30,34%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>33,15%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>33,93%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>37,33%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>37,75%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>33,63%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>32,43%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,38; 39,36</t>
+          <t>26,45; 43,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,22; 37,38</t>
+          <t>22,07; 38,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,69; 42,39</t>
+          <t>25,86; 45,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,29; 49,06</t>
+          <t>29,55; 49,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,43; 35,4</t>
+          <t>29,4; 49,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,09; 38,89</t>
+          <t>26,22; 45,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,84; 42,89</t>
+          <t>23,67; 39,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,25; 46,12</t>
+          <t>30,5; 46,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,26; 34,76</t>
+          <t>31,4; 46,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,88; 36,1</t>
+          <t>27,84; 46,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,78; 40,01</t>
+          <t>21,72; 37,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,87; 45,02</t>
+          <t>22,58; 39,54</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>26,85; 39,16</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>28,56; 40,13</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>31,0; 43,84</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>31,26; 45,06</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>28,08; 40,81</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>26,2; 38,71</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>32,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>35,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>47,81%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33,54%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>33,92%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>34,24%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>40,99%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>29,82%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>34,15%</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>36,44%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>30,16%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>34,45%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>34,62%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>40,97%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>37,79%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>42,53%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,8; 44,37</t>
+          <t>23,24; 44,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,33; 44,02</t>
+          <t>27,65; 45,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,25; 45,23</t>
+          <t>26,8; 46,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,33; 53,6</t>
+          <t>30,94; 52,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,16; 35,1</t>
+          <t>27,04; 46,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,77; 40,74</t>
+          <t>36,78; 63,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,27; 41,05</t>
+          <t>21,19; 34,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,8; 48,69</t>
+          <t>27,58; 39,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,25; 37,05</t>
+          <t>27,76; 40,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,98; 40,11</t>
+          <t>33,63; 49,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,12; 41,53</t>
+          <t>31,76; 46,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,39; 48,02</t>
+          <t>29,56; 44,65</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>24,79; 37,68</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>29,48; 40,51</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>29,52; 40,83</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>35,02; 48,12</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>32,12; 43,73</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>35,9; 53,68</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>41,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>44,29%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>38,88%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>36,1%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>33,51%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>33,2%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>39,59%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>42,88%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>37,35%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,45; 41,96</t>
+          <t>29,52; 44,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,8; 38,98</t>
+          <t>26,67; 38,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,75; 35,22</t>
+          <t>23,5; 35,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,4; 46,31</t>
+          <t>32,85; 46,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,74; 43,28</t>
+          <t>34,44; 49,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,68; 39,63</t>
+          <t>28,57; 43,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,35; 41,76</t>
+          <t>31,0; 42,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,11; 46,57</t>
+          <t>30,12; 39,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,67; 41,08</t>
+          <t>31,94; 41,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,1; 37,46</t>
+          <t>34,47; 47,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,4; 37,41</t>
+          <t>37,27; 50,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,01; 44,35</t>
+          <t>33,67; 45,14</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>31,41; 40,65</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>29,54; 37,76</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>29,55; 36,87</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>35,26; 44,34</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>37,74; 48,14</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>33,0; 42,35</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>40,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>41,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>47,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>43,67%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>46,03%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>45,69%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>37,71%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>39,02%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>43,91%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>42,04%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>45,93%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>43,69%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,25; 45,18</t>
+          <t>33,44; 45,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,9; 42,16</t>
+          <t>31,58; 42,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,05; 45,99</t>
+          <t>35,25; 46,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,13; 48,76</t>
+          <t>32,52; 48,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,41; 41,72</t>
+          <t>39,08; 53,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,96; 46,59</t>
+          <t>35,53; 49,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,08; 52,4</t>
+          <t>31,43; 42,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,92; 50,07</t>
+          <t>35,83; 45,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,06; 41,07</t>
+          <t>42,42; 52,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,24; 43,07</t>
+          <t>37,13; 50,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,52; 47,14</t>
+          <t>39,77; 51,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,69; 46,84</t>
+          <t>39,82; 51,22</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>33,65; 41,88</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>35,27; 42,69</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>39,91; 47,75</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>36,62; 46,5</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>41,07; 50,92</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>39,42; 48,26</t>
         </is>
       </c>
     </row>
@@ -1216,17 +1505,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,92%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1236,42 +1525,72 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>48,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>42,44%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42,09%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>56,0%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>36,64%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>36,0%</t>
-        </is>
-      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>46,95%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>47,65%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>36,17%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>36,37%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>39,17%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>50,34%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>47,57%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>41,85%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,07; 42,29</t>
+          <t>26,54; 40,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,13; 35,54</t>
+          <t>25,15; 36,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,67; 42,4</t>
+          <t>30,04; 42,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,93; 52,54</t>
+          <t>36,43; 51,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,85; 46,57</t>
+          <t>41,49; 56,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,81; 48,03</t>
+          <t>29,0; 43,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,78; 48,34</t>
+          <t>33,25; 46,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,44; 62,65</t>
+          <t>36,32; 48,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,91; 41,35</t>
+          <t>35,95; 48,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,12; 40,66</t>
+          <t>48,75; 61,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34,71; 43,75</t>
+          <t>40,03; 54,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>45,2; 55,4</t>
+          <t>39,49; 54,79</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>31,27; 41,16</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>31,86; 40,38</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>34,76; 43,49</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>45,37; 55,02</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>42,88; 52,56</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>36,34; 47,16</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>40,65%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>37,53%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>52,21%</t>
+          <t>42,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>40,92%</t>
+          <t>50,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>44,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>42,06%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>51,23%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>46,02%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>46,52%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>43,12%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>41,86%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>42,93%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>47,33%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>42,77%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,07; 50,04</t>
+          <t>33,46; 49,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,5; 49,52</t>
+          <t>33,12; 48,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,62; 49,61</t>
+          <t>34,31; 49,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,15; 45,59</t>
+          <t>30,19; 45,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,84; 60,13</t>
+          <t>34,14; 50,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,73; 52,78</t>
+          <t>30,56; 48,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,14; 47,41</t>
+          <t>43,82; 58,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,38; 56,45</t>
+          <t>38,58; 51,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>41,98; 53,69</t>
+          <t>35,1; 48,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>38,35; 48,66</t>
+          <t>36,8; 57,05</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,26; 46,48</t>
+          <t>42,54; 59,52</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>36,48; 49,72</t>
+          <t>37,07; 56,46</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>41,72; 51,87</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>38,19; 47,89</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>36,92; 46,83</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>36,55; 49,28</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>40,72; 52,95</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>36,94; 49,15</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>42,31%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>39,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>39,16%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>40,48%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>44,42%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>36,25%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>36,15%</t>
-        </is>
-      </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>41,33%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>37,0%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>36,82%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>38,33%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>42,29%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>42,91%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>40,31%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,74; 38,17</t>
+          <t>33,28; 39,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,11; 37,06</t>
+          <t>31,71; 37,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>32,3; 38,61</t>
+          <t>33,08; 39,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37,06; 44,08</t>
+          <t>36,83; 44,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,71; 40,81</t>
+          <t>38,95; 45,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,94; 40,7</t>
+          <t>35,53; 43,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>37,18; 42,45</t>
+          <t>35,08; 40,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>41,34; 47,69</t>
+          <t>36,8; 41,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>34,09; 38,53</t>
+          <t>38,14; 43,04</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34,26; 38,0</t>
+          <t>41,26; 47,71</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>35,72; 39,56</t>
+          <t>40,42; 46,6</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,88; 44,78</t>
+          <t>38,18; 44,63</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>34,76; 39,18</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>34,74; 38,64</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>36,39; 40,12</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>39,83; 44,62</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>40,63; 45,24</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>38,04; 42,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad (tasa de respuesta: 99,02%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>148594</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>144187</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>151457</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16317</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15720</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>121732</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>170060</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>184798</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13546</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11046</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>143799</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>270326</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>314247</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>336255</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>29863</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>26766</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>303608</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>112362; 186722</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>105367; 185662</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>112102; 196491</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12328; 20522</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12063; 20408</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>121188; 209863</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>92429; 153887</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>136866; 210115</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>146759; 218920</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10411; 17249</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8372; 14459</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>107043; 187386</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>218966; 319292</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>264547; 371653</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>279270; 394903</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>24729; 35646</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>22347; 32481</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>245232; 362397</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>183595</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>199392</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>208470</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20026</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16823</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>275393</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>142397</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>168924</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>173976</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18695</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17695</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>182165</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>325992</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>368316</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>382446</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>38721</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>34518</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>457557</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>131823; 254072</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>156370; 259439</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>158670; 277645</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15132; 25616</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12326; 21335</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>211862; 364652</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>108859; 179277</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>138899; 199894</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>142345; 207833</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15338; 22367</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14531; 21066</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>147787; 223208</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>267960; 407344</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>315202; 433136</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>326168; 451065</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>33095; 45479</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>29335; 39940</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>386256; 577592</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>244687</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>219898</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>197753</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23357</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>24629</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>240683</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>257351</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>248377</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>263186</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>21546</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>24033</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>273360</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>502038</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>468275</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>460938</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>44904</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>48663</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>514042</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>200204; 300768</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>181530; 261912</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>159349; 240502</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19689; 27753</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20402; 29404</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>192315; 294253</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>220868; 299911</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>215897; 285936</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>226916; 296304</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18431; 25236</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>20226; 27516</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>236771; 317393</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>436888; 565372</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>412849; 527728</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>410238; 511901</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>39992; 50287</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>42832; 54642</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>454213; 582869</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>254087</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>237049</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>255441</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23664</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25798</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>272314</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>247621</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>274137</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>308800</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22329</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>24084</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>294428</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>501708</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>511186</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>564241</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>45993</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>49882</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>566743</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>216475; 296129</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>202825; 273322</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>222181; 293898</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>18950; 28055</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21997; 29867</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>231962; 325322</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>214748; 289260</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>239301; 305830</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>277654; 341754</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>18985; 25611</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>20810; 27174</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>256606; 330113</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>447778; 557205</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>462076; 559228</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>512737; 613534</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>40061; 50867</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>44604; 55304</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>511438; 626037</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>164630</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>147305</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>176775</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19520</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21132</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>173230</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>195898</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>210048</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>214458</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>27149</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21527</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>244940</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>360528</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>357353</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>391233</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>46668</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>42658</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>418170</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>131456; 202875</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>122637; 177901</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>146986; 207202</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16113; 22694</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18182; 24574</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>140678; 209723</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>166714; 232620</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>179757; 241275</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>183155; 246560</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>23637; 30022</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>18358; 25136</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>203032; 281661</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>311712; 410236</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>312999; 396708</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>347209; 434382</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>42064; 51013</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>38454; 47139</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>363132; 471218</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>219095</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>210767</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>211671</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>17573</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>19162</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>217426</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>350298</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>294492</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>279350</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>29518</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>30538</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>324659</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>569393</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>505259</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>491021</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>47091</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>49700</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>542085</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>179643; 267241</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>170681; 250834</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>174536; 252964</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>14139; 21409</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>15496; 23049</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>171777; 270190</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>301098; 399918</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>253150; 337030</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>233131; 324991</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>23132; 35865</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>25357; 35478</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>261514; 398251</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>510601; 634843</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>447404; 561102</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>433013; 549284</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>40098; 54064</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>42754; 55595</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>468199; 622922</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>464.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>629.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>678.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>481.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>513.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>882.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1093.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1164.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>857.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>865.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>910.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1214687</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1158597</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1201566</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>120456</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>123264</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1338855</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1315298</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1366038</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1424569</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>132784</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>128923</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1463351</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>2529985</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>2524635</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>2626135</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>253240</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>252186</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>2802206</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1114949; 1328707</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1068360; 1259184</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1102135; 1312552</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>110440; 132053</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>113495; 133824</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1211857; 1478634</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1223903; 1420587</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1283682; 1441923</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1342220; 1514390</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>123355; 142631</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>119786; 138103</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1351761; 1580328</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>2376998; 2679396</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2381899; 2649873</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2493021; 2748677</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>238512; 267221</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>238803; 265904</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>2644706; 2978054</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
